--- a/resources/plot-csv-files/63-matrices-double-precision-rci.xlsx
+++ b/resources/plot-csv-files/63-matrices-double-precision-rci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cejkaluk\git\research-assignment-LU-decomposition\resources\plot-csv-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA26CD7A-83F2-4629-8804-CB7F23685197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAAC7BB-1DE2-411A-9AAD-C4A2453A87F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EB188C0A-FAF6-472A-8029-F7F1C455370D}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EB188C0A-FAF6-472A-8029-F7F1C455370D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -228,18 +228,6 @@
   </si>
   <si>
     <t>matrix-name</t>
-  </si>
-  <si>
-    <t>cm-bandwidth</t>
-  </si>
-  <si>
-    <t>icm8-bandwidth</t>
-  </si>
-  <si>
-    <t>icm16-bandwidth</t>
-  </si>
-  <si>
-    <t>icm32-bandwidth</t>
   </si>
   <si>
     <t>icm8-speedup</t>
@@ -299,22 +287,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -624,25 +597,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB636D-FE6B-437A-94AD-9719587C6509}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,37 +620,25 @@
         <v>63</v>
       </c>
       <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -688,37 +646,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9.7200000000000006</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2.5000000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>2.5999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F2">
-        <v>2.5999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2.328306E-10</v>
       </c>
       <c r="H2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K2">
-        <v>2.328306E-10</v>
-      </c>
-      <c r="L2">
         <v>4.6566130000000002E-10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -726,37 +672,25 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5.12</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.08</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E3">
-        <v>8.2000000000000003E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F3">
-        <v>7.8E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>1.192093E-7</v>
       </c>
       <c r="H3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I3">
-        <v>1.6E-2</v>
-      </c>
-      <c r="J3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K3">
         <v>1.192093E-7</v>
       </c>
-      <c r="L3">
-        <v>1.192093E-7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -764,37 +698,25 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.63</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1.57</v>
+        <v>0.436</v>
       </c>
       <c r="E4">
-        <v>1.613</v>
+        <v>0.45</v>
       </c>
       <c r="F4">
-        <v>1.5149999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>9.0949469999999998E-13</v>
       </c>
       <c r="H4">
-        <v>0.436</v>
-      </c>
-      <c r="I4">
-        <v>0.45</v>
-      </c>
-      <c r="J4">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="K4">
-        <v>9.0949469999999998E-13</v>
-      </c>
-      <c r="L4">
         <v>1.8189889999999999E-12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -802,37 +724,25 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3.556</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>8.6999999999999994E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E5">
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F5">
-        <v>8.3000000000000004E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2.4E-2</v>
-      </c>
-      <c r="I5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J5">
-        <v>2.4E-2</v>
-      </c>
-      <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -840,37 +750,25 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2.202</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.108</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E6">
-        <v>0.11899999999999999</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F6">
-        <v>0.10100000000000001</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>1.0408339999999999E-17</v>
       </c>
       <c r="H6">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I6">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="J6">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="K6">
         <v>1.0408339999999999E-17</v>
       </c>
-      <c r="L6">
-        <v>1.0408339999999999E-17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -878,37 +776,25 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1.9830000000000001</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.187</v>
+        <v>9.4E-2</v>
       </c>
       <c r="E7">
-        <v>0.19</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="F7">
-        <v>0.186</v>
+        <v>9.4E-2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2.3841859999999999E-7</v>
       </c>
       <c r="H7">
-        <v>9.4E-2</v>
-      </c>
-      <c r="I7">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="J7">
-        <v>9.4E-2</v>
-      </c>
-      <c r="K7">
-        <v>2.3841859999999999E-7</v>
-      </c>
-      <c r="L7">
         <v>9.5367430000000002E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -916,37 +802,25 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1.669</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1.4890000000000001</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="E8">
-        <v>1.5760000000000001</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="F8">
-        <v>1.454</v>
+        <v>0.872</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>7.1054269999999997E-15</v>
       </c>
       <c r="H8">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="I8">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="J8">
-        <v>0.872</v>
-      </c>
-      <c r="K8">
         <v>7.1054269999999997E-15</v>
       </c>
-      <c r="L8">
-        <v>7.1054269999999997E-15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -954,37 +828,25 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1.6319999999999999</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.17399999999999999</v>
+        <v>0.106</v>
       </c>
       <c r="E9">
-        <v>0.188</v>
+        <v>0.115</v>
       </c>
       <c r="F9">
-        <v>0.16900000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>4.6566130000000002E-10</v>
       </c>
       <c r="H9">
-        <v>0.106</v>
-      </c>
-      <c r="I9">
-        <v>0.115</v>
-      </c>
-      <c r="J9">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="K9">
-        <v>4.6566130000000002E-10</v>
-      </c>
-      <c r="L9">
         <v>9.3132260000000005E-10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -992,37 +854,25 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1.548</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.25700000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="E10">
-        <v>0.29099999999999998</v>
+        <v>0.188</v>
       </c>
       <c r="F10">
-        <v>0.247</v>
+        <v>0.159</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4.6566130000000002E-10</v>
       </c>
       <c r="H10">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.188</v>
-      </c>
-      <c r="J10">
-        <v>0.159</v>
-      </c>
-      <c r="K10">
         <v>4.6566130000000002E-10</v>
       </c>
-      <c r="L10">
-        <v>4.6566130000000002E-10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1030,37 +880,25 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1.363</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.24399999999999999</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="E11">
-        <v>0.26600000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="F11">
-        <v>0.248</v>
+        <v>0.182</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2.328306E-10</v>
       </c>
       <c r="H11">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="J11">
-        <v>0.182</v>
-      </c>
-      <c r="K11">
-        <v>2.328306E-10</v>
-      </c>
-      <c r="L11">
         <v>4.6566130000000002E-10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1068,37 +906,25 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.39200000000000002</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.65500000000000003</v>
+        <v>1.671</v>
       </c>
       <c r="E12">
-        <v>0.68100000000000005</v>
+        <v>1.738</v>
       </c>
       <c r="F12">
-        <v>0.66900000000000004</v>
+        <v>1.708</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>4.4408919999999998E-16</v>
       </c>
       <c r="H12">
-        <v>1.671</v>
-      </c>
-      <c r="I12">
-        <v>1.738</v>
-      </c>
-      <c r="J12">
-        <v>1.708</v>
-      </c>
-      <c r="K12">
         <v>4.4408919999999998E-16</v>
       </c>
-      <c r="L12">
-        <v>4.4408919999999998E-16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1106,37 +932,25 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.39100000000000001</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1.8759999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="E13">
-        <v>2.0779999999999998</v>
+        <v>5.3159999999999998</v>
       </c>
       <c r="F13">
-        <v>1.879</v>
+        <v>4.806</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>4.7683719999999998E-7</v>
       </c>
       <c r="H13">
-        <v>4.8</v>
-      </c>
-      <c r="I13">
-        <v>5.3159999999999998</v>
-      </c>
-      <c r="J13">
-        <v>4.806</v>
-      </c>
-      <c r="K13">
-        <v>4.7683719999999998E-7</v>
-      </c>
-      <c r="L13">
         <v>2.3841859999999999E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1144,37 +958,25 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1.87</v>
+        <v>4.7969999999999997</v>
       </c>
       <c r="E14">
-        <v>1.7969999999999999</v>
+        <v>4.6109999999999998</v>
       </c>
       <c r="F14">
-        <v>1.841</v>
+        <v>4.7249999999999996</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>4.7683719999999998E-7</v>
       </c>
       <c r="H14">
-        <v>4.7969999999999997</v>
-      </c>
-      <c r="I14">
-        <v>4.6109999999999998</v>
-      </c>
-      <c r="J14">
-        <v>4.7249999999999996</v>
-      </c>
-      <c r="K14">
-        <v>4.7683719999999998E-7</v>
-      </c>
-      <c r="L14">
         <v>2.3841859999999999E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1182,37 +984,25 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0.32700000000000001</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.63200000000000001</v>
+        <v>1.9330000000000001</v>
       </c>
       <c r="E15">
-        <v>0.46899999999999997</v>
+        <v>1.4339999999999999</v>
       </c>
       <c r="F15">
-        <v>0.40799999999999997</v>
+        <v>1.248</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H15">
-        <v>1.9330000000000001</v>
-      </c>
-      <c r="I15">
-        <v>1.4339999999999999</v>
-      </c>
-      <c r="J15">
-        <v>1.248</v>
-      </c>
-      <c r="K15">
-        <v>3.125E-2</v>
-      </c>
-      <c r="L15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1220,37 +1010,25 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.32600000000000001</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1.157</v>
+        <v>3.544</v>
       </c>
       <c r="E16">
-        <v>1.401</v>
+        <v>4.2949999999999999</v>
       </c>
       <c r="F16">
-        <v>1.196</v>
+        <v>3.6640000000000001</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2.2737369999999998E-13</v>
       </c>
       <c r="H16">
-        <v>3.544</v>
-      </c>
-      <c r="I16">
-        <v>4.2949999999999999</v>
-      </c>
-      <c r="J16">
-        <v>3.6640000000000001</v>
-      </c>
-      <c r="K16">
-        <v>2.2737369999999998E-13</v>
-      </c>
-      <c r="L16">
         <v>9.0949469999999998E-13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1258,37 +1036,25 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.23899999999999999</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1.2689999999999999</v>
+        <v>5.3170000000000002</v>
       </c>
       <c r="E17">
-        <v>1.3879999999999999</v>
+        <v>5.8170000000000002</v>
       </c>
       <c r="F17">
-        <v>1.33</v>
+        <v>5.5750000000000002</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2.8421710000000002E-14</v>
       </c>
       <c r="H17">
-        <v>5.3170000000000002</v>
-      </c>
-      <c r="I17">
-        <v>5.8170000000000002</v>
-      </c>
-      <c r="J17">
-        <v>5.5750000000000002</v>
-      </c>
-      <c r="K17">
-        <v>2.8421710000000002E-14</v>
-      </c>
-      <c r="L17">
         <v>1.136868E-13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1296,37 +1062,25 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.22800000000000001</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0.76100000000000001</v>
+        <v>3.3340000000000001</v>
       </c>
       <c r="E18">
-        <v>0.77900000000000003</v>
+        <v>3.411</v>
       </c>
       <c r="F18">
-        <v>0.74</v>
+        <v>3.242</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>5.6843420000000003E-14</v>
       </c>
       <c r="H18">
-        <v>3.3340000000000001</v>
-      </c>
-      <c r="I18">
-        <v>3.411</v>
-      </c>
-      <c r="J18">
-        <v>3.242</v>
-      </c>
-      <c r="K18">
-        <v>5.6843420000000003E-14</v>
-      </c>
-      <c r="L18">
         <v>1.8189889999999999E-12</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1334,37 +1088,25 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.188</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2.7</v>
+        <v>14.372</v>
       </c>
       <c r="E19">
-        <v>2.9249999999999998</v>
+        <v>15.569000000000001</v>
       </c>
       <c r="F19">
-        <v>2.6589999999999998</v>
+        <v>14.151999999999999</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>9.765625E-4</v>
       </c>
       <c r="H19">
-        <v>14.372</v>
-      </c>
-      <c r="I19">
-        <v>15.569000000000001</v>
-      </c>
-      <c r="J19">
-        <v>14.151999999999999</v>
-      </c>
-      <c r="K19">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="L19">
         <v>1.220703E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1372,37 +1114,25 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.14199999999999999</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>6.4610000000000003</v>
+        <v>45.359000000000002</v>
       </c>
       <c r="E20">
-        <v>7.2350000000000003</v>
+        <v>50.798000000000002</v>
       </c>
       <c r="F20">
-        <v>6.891</v>
+        <v>48.371000000000002</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3.8146969999999998E-6</v>
       </c>
       <c r="H20">
-        <v>45.359000000000002</v>
-      </c>
-      <c r="I20">
-        <v>50.798000000000002</v>
-      </c>
-      <c r="J20">
-        <v>48.371000000000002</v>
-      </c>
-      <c r="K20">
-        <v>3.8146969999999998E-6</v>
-      </c>
-      <c r="L20">
         <v>1.192093E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1410,37 +1140,25 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.14099999999999999</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>6.4470000000000001</v>
+        <v>45.863</v>
       </c>
       <c r="E21">
-        <v>6.141</v>
+        <v>43.677999999999997</v>
       </c>
       <c r="F21">
-        <v>5.5359999999999996</v>
+        <v>39.378</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>7.4505810000000005E-9</v>
       </c>
       <c r="H21">
-        <v>45.863</v>
-      </c>
-      <c r="I21">
-        <v>43.677999999999997</v>
-      </c>
-      <c r="J21">
-        <v>39.378</v>
-      </c>
-      <c r="K21">
         <v>7.4505810000000005E-9</v>
       </c>
-      <c r="L21">
-        <v>7.4505810000000005E-9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1448,37 +1166,25 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>6.0979999999999999</v>
+        <v>43.66</v>
       </c>
       <c r="E22">
-        <v>1.7789999999999999</v>
+        <v>12.738</v>
       </c>
       <c r="F22">
-        <v>0.77500000000000002</v>
+        <v>5.5490000000000004</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>1.862645E-9</v>
       </c>
       <c r="H22">
-        <v>43.66</v>
-      </c>
-      <c r="I22">
-        <v>12.738</v>
-      </c>
-      <c r="J22">
-        <v>5.5490000000000004</v>
-      </c>
-      <c r="K22">
-        <v>1.862645E-9</v>
-      </c>
-      <c r="L22">
         <v>3.7252900000000001E-9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1486,37 +1192,25 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.13200000000000001</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1.0389999999999999</v>
+        <v>7.8819999999999997</v>
       </c>
       <c r="E23">
-        <v>0.79800000000000004</v>
+        <v>6.0529999999999999</v>
       </c>
       <c r="F23">
-        <v>0.751</v>
+        <v>5.6989999999999998</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>1.136868E-13</v>
       </c>
       <c r="H23">
-        <v>7.8819999999999997</v>
-      </c>
-      <c r="I23">
-        <v>6.0529999999999999</v>
-      </c>
-      <c r="J23">
-        <v>5.6989999999999998</v>
-      </c>
-      <c r="K23">
-        <v>1.136868E-13</v>
-      </c>
-      <c r="L23">
         <v>1.8189889999999999E-12</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1524,37 +1218,25 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.123</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>7.7770000000000001</v>
+        <v>63.106999999999999</v>
       </c>
       <c r="E24">
-        <v>9.2309999999999999</v>
+        <v>74.903999999999996</v>
       </c>
       <c r="F24">
-        <v>7.6260000000000003</v>
+        <v>61.887</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>1.164153E-10</v>
       </c>
       <c r="H24">
-        <v>63.106999999999999</v>
-      </c>
-      <c r="I24">
-        <v>74.903999999999996</v>
-      </c>
-      <c r="J24">
-        <v>61.887</v>
-      </c>
-      <c r="K24">
-        <v>1.164153E-10</v>
-      </c>
-      <c r="L24">
         <v>2.328306E-10</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1562,37 +1244,25 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.124</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>7.0709999999999997</v>
+        <v>57.247</v>
       </c>
       <c r="E25">
-        <v>9.2279999999999998</v>
+        <v>74.703000000000003</v>
       </c>
       <c r="F25">
-        <v>7.3559999999999999</v>
+        <v>59.551000000000002</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>1.3528729999999999E-11</v>
       </c>
       <c r="H25">
-        <v>57.247</v>
-      </c>
-      <c r="I25">
-        <v>74.703000000000003</v>
-      </c>
-      <c r="J25">
-        <v>59.551000000000002</v>
-      </c>
-      <c r="K25">
-        <v>1.3528729999999999E-11</v>
-      </c>
-      <c r="L25">
         <v>2.2737369999999998E-13</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1600,37 +1270,25 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.10299999999999999</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>8.3550000000000004</v>
+        <v>81.480999999999995</v>
       </c>
       <c r="E26">
-        <v>8.85</v>
+        <v>86.304000000000002</v>
       </c>
       <c r="F26">
-        <v>8.7040000000000006</v>
+        <v>84.884</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>5.9604640000000001E-8</v>
       </c>
       <c r="H26">
-        <v>81.480999999999995</v>
-      </c>
-      <c r="I26">
-        <v>86.304000000000002</v>
-      </c>
-      <c r="J26">
-        <v>84.884</v>
-      </c>
-      <c r="K26">
-        <v>5.9604640000000001E-8</v>
-      </c>
-      <c r="L26">
         <v>1.490116E-8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1638,37 +1296,25 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.10199999999999999</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>8.3230000000000004</v>
+        <v>81.957999999999998</v>
       </c>
       <c r="E27">
-        <v>9.3559999999999999</v>
+        <v>92.137</v>
       </c>
       <c r="F27">
-        <v>8.0850000000000009</v>
+        <v>79.626000000000005</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>5.9604640000000001E-8</v>
       </c>
       <c r="H27">
-        <v>81.957999999999998</v>
-      </c>
-      <c r="I27">
-        <v>92.137</v>
-      </c>
-      <c r="J27">
-        <v>79.626000000000005</v>
-      </c>
-      <c r="K27">
-        <v>5.9604640000000001E-8</v>
-      </c>
-      <c r="L27">
         <v>1.490116E-8</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1676,37 +1322,25 @@
         <v>57</v>
       </c>
       <c r="C28">
-        <v>9.0999999999999998E-2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>9.2999999999999999E-2</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="E28">
-        <v>0.108</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="F28">
-        <v>0.105</v>
+        <v>1.155</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>6.9405810000000004E-9</v>
       </c>
       <c r="H28">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="I28">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="J28">
-        <v>1.155</v>
-      </c>
-      <c r="K28">
-        <v>6.9405810000000004E-9</v>
-      </c>
-      <c r="L28">
         <v>4.4248960000000002E-8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1714,37 +1348,25 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>8.3000000000000004E-2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>9.7149999999999999</v>
+        <v>117.339</v>
       </c>
       <c r="E29">
-        <v>11.519</v>
+        <v>139.119</v>
       </c>
       <c r="F29">
-        <v>10.752000000000001</v>
+        <v>129.864</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>9.5367430000000002E-7</v>
       </c>
       <c r="H29">
-        <v>117.339</v>
-      </c>
-      <c r="I29">
-        <v>139.119</v>
-      </c>
-      <c r="J29">
-        <v>129.864</v>
-      </c>
-      <c r="K29">
-        <v>9.5367430000000002E-7</v>
-      </c>
-      <c r="L29">
         <v>2.3841859999999999E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1752,37 +1374,25 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>7.8E-2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>11.268000000000001</v>
+        <v>145.322</v>
       </c>
       <c r="E30">
-        <v>12.513</v>
+        <v>161.38200000000001</v>
       </c>
       <c r="F30">
-        <v>11.632</v>
+        <v>150.03100000000001</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>3.8146969999999998E-6</v>
       </c>
       <c r="H30">
-        <v>145.322</v>
-      </c>
-      <c r="I30">
-        <v>161.38200000000001</v>
-      </c>
-      <c r="J30">
-        <v>150.03100000000001</v>
-      </c>
-      <c r="K30">
-        <v>3.8146969999999998E-6</v>
-      </c>
-      <c r="L30">
         <v>9.5367430000000002E-7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1790,37 +1400,25 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>7.8E-2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>18.556000000000001</v>
+        <v>239.04499999999999</v>
       </c>
       <c r="E31">
-        <v>23.128</v>
+        <v>297.92700000000002</v>
       </c>
       <c r="F31">
-        <v>21.341000000000001</v>
+        <v>274.88200000000001</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>239.04499999999999</v>
-      </c>
-      <c r="I31">
-        <v>297.92700000000002</v>
-      </c>
-      <c r="J31">
-        <v>274.88200000000001</v>
-      </c>
-      <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1828,37 +1426,25 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>7.4999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>8.2680000000000007</v>
+        <v>110.85</v>
       </c>
       <c r="E32">
-        <v>9.8049999999999997</v>
+        <v>131.44999999999999</v>
       </c>
       <c r="F32">
-        <v>8.9670000000000005</v>
+        <v>120.223</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>6.1035159999999999E-5</v>
       </c>
       <c r="H32">
-        <v>110.85</v>
-      </c>
-      <c r="I32">
-        <v>131.44999999999999</v>
-      </c>
-      <c r="J32">
-        <v>120.223</v>
-      </c>
-      <c r="K32">
-        <v>6.1035159999999999E-5</v>
-      </c>
-      <c r="L32">
         <v>7.6293949999999998E-6</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1866,37 +1452,25 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>1.214</v>
+        <v>20.094000000000001</v>
       </c>
       <c r="E33">
-        <v>1.4379999999999999</v>
+        <v>23.8</v>
       </c>
       <c r="F33">
-        <v>1.355</v>
+        <v>22.433</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2.7755580000000001E-17</v>
       </c>
       <c r="H33">
-        <v>20.094000000000001</v>
-      </c>
-      <c r="I33">
-        <v>23.8</v>
-      </c>
-      <c r="J33">
-        <v>22.433</v>
-      </c>
-      <c r="K33">
-        <v>2.7755580000000001E-17</v>
-      </c>
-      <c r="L33">
         <v>5.5511149999999998E-17</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1904,37 +1478,25 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>5.8000000000000003E-2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>1.2250000000000001</v>
+        <v>21.192</v>
       </c>
       <c r="E34">
-        <v>0.52400000000000002</v>
+        <v>9.0619999999999994</v>
       </c>
       <c r="F34">
-        <v>0.41099999999999998</v>
+        <v>7.117</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>5.6843420000000003E-14</v>
       </c>
       <c r="H34">
-        <v>21.192</v>
-      </c>
-      <c r="I34">
-        <v>9.0619999999999994</v>
-      </c>
-      <c r="J34">
-        <v>7.117</v>
-      </c>
-      <c r="K34">
-        <v>5.6843420000000003E-14</v>
-      </c>
-      <c r="L34">
         <v>1.136868E-13</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1942,37 +1504,25 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>5.7000000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>15.009</v>
+        <v>263.733</v>
       </c>
       <c r="E35">
-        <v>17.321999999999999</v>
+        <v>304.38799999999998</v>
       </c>
       <c r="F35">
-        <v>16.488</v>
+        <v>289.74299999999999</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>5.6843420000000003E-14</v>
       </c>
       <c r="H35">
-        <v>263.733</v>
-      </c>
-      <c r="I35">
-        <v>304.38799999999998</v>
-      </c>
-      <c r="J35">
-        <v>289.74299999999999</v>
-      </c>
-      <c r="K35">
-        <v>5.6843420000000003E-14</v>
-      </c>
-      <c r="L35">
         <v>1.136868E-13</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1980,37 +1530,25 @@
         <v>58</v>
       </c>
       <c r="C36">
-        <v>4.7E-2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>7.0000000000000007E-2</v>
+        <v>1.5029999999999999</v>
       </c>
       <c r="E36">
-        <v>8.8999999999999996E-2</v>
+        <v>1.897</v>
       </c>
       <c r="F36">
-        <v>9.2999999999999999E-2</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>7.44717E-9</v>
       </c>
       <c r="H36">
-        <v>1.5029999999999999</v>
-      </c>
-      <c r="I36">
-        <v>1.897</v>
-      </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
-      <c r="K36">
-        <v>7.44717E-9</v>
-      </c>
-      <c r="L36">
         <v>4.5984169999999998E-8</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2018,37 +1556,25 @@
         <v>34</v>
       </c>
       <c r="C37">
-        <v>4.2999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0.89600000000000002</v>
+        <v>21.050999999999998</v>
       </c>
       <c r="E37">
-        <v>1.0009999999999999</v>
+        <v>23.518999999999998</v>
       </c>
       <c r="F37">
-        <v>1.103</v>
+        <v>25.925999999999998</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2.2204459999999999E-16</v>
       </c>
       <c r="H37">
-        <v>21.050999999999998</v>
-      </c>
-      <c r="I37">
-        <v>23.518999999999998</v>
-      </c>
-      <c r="J37">
-        <v>25.925999999999998</v>
-      </c>
-      <c r="K37">
         <v>2.2204459999999999E-16</v>
       </c>
-      <c r="L37">
-        <v>2.2204459999999999E-16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2056,37 +1582,25 @@
         <v>35</v>
       </c>
       <c r="C38">
-        <v>4.2999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0.88100000000000001</v>
+        <v>20.667999999999999</v>
       </c>
       <c r="E38">
-        <v>0.996</v>
+        <v>23.356999999999999</v>
       </c>
       <c r="F38">
-        <v>1.0640000000000001</v>
+        <v>24.959</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2.2204459999999999E-16</v>
       </c>
       <c r="H38">
-        <v>20.667999999999999</v>
-      </c>
-      <c r="I38">
-        <v>23.356999999999999</v>
-      </c>
-      <c r="J38">
-        <v>24.959</v>
-      </c>
-      <c r="K38">
         <v>2.2204459999999999E-16</v>
       </c>
-      <c r="L38">
-        <v>2.2204459999999999E-16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2094,37 +1608,25 @@
         <v>36</v>
       </c>
       <c r="C39">
-        <v>3.9E-2</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>12.048999999999999</v>
+        <v>305.315</v>
       </c>
       <c r="E39">
-        <v>15.317</v>
+        <v>388.12400000000002</v>
       </c>
       <c r="F39">
-        <v>16.818999999999999</v>
+        <v>426.18</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H39">
-        <v>305.315</v>
-      </c>
-      <c r="I39">
-        <v>388.12400000000002</v>
-      </c>
-      <c r="J39">
-        <v>426.18</v>
-      </c>
-      <c r="K39">
-        <v>0.25</v>
-      </c>
-      <c r="L39">
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2132,37 +1634,25 @@
         <v>37</v>
       </c>
       <c r="C40">
-        <v>3.4000000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>1.6539999999999999</v>
+        <v>48.844999999999999</v>
       </c>
       <c r="E40">
-        <v>2.0950000000000002</v>
+        <v>61.886000000000003</v>
       </c>
       <c r="F40">
-        <v>2.4689999999999999</v>
+        <v>72.929000000000002</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>1.734723E-18</v>
       </c>
       <c r="H40">
-        <v>48.844999999999999</v>
-      </c>
-      <c r="I40">
-        <v>61.886000000000003</v>
-      </c>
-      <c r="J40">
-        <v>72.929000000000002</v>
-      </c>
-      <c r="K40">
         <v>1.734723E-18</v>
       </c>
-      <c r="L40">
-        <v>1.734723E-18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2170,37 +1660,25 @@
         <v>38</v>
       </c>
       <c r="C41">
-        <v>3.5000000000000003E-2</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>1.6719999999999999</v>
+        <v>48.343000000000004</v>
       </c>
       <c r="E41">
-        <v>2.081</v>
+        <v>60.145000000000003</v>
       </c>
       <c r="F41">
-        <v>2.472</v>
+        <v>71.465999999999994</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>1.734723E-18</v>
       </c>
       <c r="H41">
-        <v>48.343000000000004</v>
-      </c>
-      <c r="I41">
-        <v>60.145000000000003</v>
-      </c>
-      <c r="J41">
-        <v>71.465999999999994</v>
-      </c>
-      <c r="K41">
         <v>1.734723E-18</v>
       </c>
-      <c r="L41">
-        <v>1.734723E-18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2208,37 +1686,25 @@
         <v>39</v>
       </c>
       <c r="C42">
-        <v>3.5999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0.99399999999999999</v>
+        <v>27.468</v>
       </c>
       <c r="E42">
-        <v>1.026</v>
+        <v>28.369</v>
       </c>
       <c r="F42">
-        <v>0.92900000000000005</v>
+        <v>25.681999999999999</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>1.110223E-16</v>
       </c>
       <c r="H42">
-        <v>27.468</v>
-      </c>
-      <c r="I42">
-        <v>28.369</v>
-      </c>
-      <c r="J42">
-        <v>25.681999999999999</v>
-      </c>
-      <c r="K42">
-        <v>1.110223E-16</v>
-      </c>
-      <c r="L42">
         <v>2.2204459999999999E-16</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2246,37 +1712,25 @@
         <v>39</v>
       </c>
       <c r="C43">
-        <v>3.5999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>0.99399999999999999</v>
+        <v>27.468</v>
       </c>
       <c r="E43">
-        <v>1.026</v>
+        <v>28.369</v>
       </c>
       <c r="F43">
-        <v>0.92900000000000005</v>
+        <v>25.681999999999999</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>1.110223E-16</v>
       </c>
       <c r="H43">
-        <v>27.468</v>
-      </c>
-      <c r="I43">
-        <v>28.369</v>
-      </c>
-      <c r="J43">
-        <v>25.681999999999999</v>
-      </c>
-      <c r="K43">
-        <v>1.110223E-16</v>
-      </c>
-      <c r="L43">
         <v>2.2204459999999999E-16</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2284,37 +1738,25 @@
         <v>62</v>
       </c>
       <c r="C44">
-        <v>3.9E-2</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>5.7000000000000002E-2</v>
+        <v>1.4690000000000001</v>
       </c>
       <c r="E44">
-        <v>6.4000000000000001E-2</v>
+        <v>1.651</v>
       </c>
       <c r="F44">
-        <v>6.3E-2</v>
+        <v>1.6140000000000001</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2.3822619999999999E-8</v>
       </c>
       <c r="H44">
-        <v>1.4690000000000001</v>
-      </c>
-      <c r="I44">
-        <v>1.651</v>
-      </c>
-      <c r="J44">
-        <v>1.6140000000000001</v>
-      </c>
-      <c r="K44">
-        <v>2.3822619999999999E-8</v>
-      </c>
-      <c r="L44">
         <v>3.462651E-7</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2322,37 +1764,25 @@
         <v>40</v>
       </c>
       <c r="C45">
-        <v>3.2000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>4.72</v>
+        <v>147.36000000000001</v>
       </c>
       <c r="E45">
-        <v>1.7629999999999999</v>
+        <v>55.054000000000002</v>
       </c>
       <c r="F45">
-        <v>0.86199999999999999</v>
+        <v>26.908000000000001</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2.4414059999999999E-4</v>
       </c>
       <c r="H45">
-        <v>147.36000000000001</v>
-      </c>
-      <c r="I45">
-        <v>55.054000000000002</v>
-      </c>
-      <c r="J45">
-        <v>26.908000000000001</v>
-      </c>
-      <c r="K45">
-        <v>2.4414059999999999E-4</v>
-      </c>
-      <c r="L45">
         <v>3.90625E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2360,37 +1790,25 @@
         <v>41</v>
       </c>
       <c r="C46">
-        <v>3.5999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>14.246</v>
+        <v>400.30599999999998</v>
       </c>
       <c r="E46">
-        <v>16.498999999999999</v>
+        <v>463.61</v>
       </c>
       <c r="F46">
-        <v>15.962999999999999</v>
+        <v>448.53399999999999</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>7.4505810000000005E-9</v>
       </c>
       <c r="H46">
-        <v>400.30599999999998</v>
-      </c>
-      <c r="I46">
-        <v>463.61</v>
-      </c>
-      <c r="J46">
-        <v>448.53399999999999</v>
-      </c>
-      <c r="K46">
         <v>7.4505810000000005E-9</v>
       </c>
-      <c r="L46">
-        <v>7.4505810000000005E-9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2398,37 +1816,25 @@
         <v>42</v>
       </c>
       <c r="C47">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>14.747</v>
+        <v>486.584</v>
       </c>
       <c r="E47">
-        <v>18.167000000000002</v>
+        <v>599.43799999999999</v>
       </c>
       <c r="F47">
-        <v>18.687000000000001</v>
+        <v>616.57500000000005</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2.3841859999999999E-7</v>
       </c>
       <c r="H47">
-        <v>486.584</v>
-      </c>
-      <c r="I47">
-        <v>599.43799999999999</v>
-      </c>
-      <c r="J47">
-        <v>616.57500000000005</v>
-      </c>
-      <c r="K47">
-        <v>2.3841859999999999E-7</v>
-      </c>
-      <c r="L47">
         <v>4.7683719999999998E-7</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2436,37 +1842,25 @@
         <v>43</v>
       </c>
       <c r="C48">
-        <v>3.1E-2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>6.1840000000000002</v>
+        <v>200.59700000000001</v>
       </c>
       <c r="E48">
-        <v>7.4740000000000002</v>
+        <v>242.453</v>
       </c>
       <c r="F48">
-        <v>8.3469999999999995</v>
+        <v>270.77699999999999</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>1.110223E-16</v>
       </c>
       <c r="H48">
-        <v>200.59700000000001</v>
-      </c>
-      <c r="I48">
-        <v>242.453</v>
-      </c>
-      <c r="J48">
-        <v>270.77699999999999</v>
-      </c>
-      <c r="K48">
         <v>1.110223E-16</v>
       </c>
-      <c r="L48">
-        <v>1.110223E-16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2474,37 +1868,25 @@
         <v>44</v>
       </c>
       <c r="C49">
-        <v>2.5999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>7.29</v>
+        <v>283.34899999999999</v>
       </c>
       <c r="E49">
-        <v>8.9359999999999999</v>
+        <v>347.30099999999999</v>
       </c>
       <c r="F49">
-        <v>9.73</v>
+        <v>378.16800000000001</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>9.3132260000000005E-10</v>
       </c>
       <c r="H49">
-        <v>283.34899999999999</v>
-      </c>
-      <c r="I49">
-        <v>347.30099999999999</v>
-      </c>
-      <c r="J49">
-        <v>378.16800000000001</v>
-      </c>
-      <c r="K49">
         <v>9.3132260000000005E-10</v>
       </c>
-      <c r="L49">
-        <v>9.3132260000000005E-10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2512,37 +1894,25 @@
         <v>45</v>
       </c>
       <c r="C50">
-        <v>2.4E-2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>11.507999999999999</v>
+        <v>473.76600000000002</v>
       </c>
       <c r="E50">
-        <v>13.914999999999999</v>
+        <v>572.86300000000006</v>
       </c>
       <c r="F50">
-        <v>16.928999999999998</v>
+        <v>696.97900000000004</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>1.490116E-8</v>
       </c>
       <c r="H50">
-        <v>473.76600000000002</v>
-      </c>
-      <c r="I50">
-        <v>572.86300000000006</v>
-      </c>
-      <c r="J50">
-        <v>696.97900000000004</v>
-      </c>
-      <c r="K50">
-        <v>1.490116E-8</v>
-      </c>
-      <c r="L50">
         <v>4.6566130000000002E-10</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2550,37 +1920,25 @@
         <v>46</v>
       </c>
       <c r="C51">
-        <v>1.7000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>12.965999999999999</v>
+        <v>751.40499999999997</v>
       </c>
       <c r="E51">
-        <v>16.327999999999999</v>
+        <v>946.25</v>
       </c>
       <c r="F51">
-        <v>18.114000000000001</v>
+        <v>1049.74</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>6.4623489999999997E-27</v>
       </c>
       <c r="H51">
-        <v>751.40499999999997</v>
-      </c>
-      <c r="I51">
-        <v>946.25</v>
-      </c>
-      <c r="J51">
-        <v>1049.74</v>
-      </c>
-      <c r="K51">
-        <v>6.4623489999999997E-27</v>
-      </c>
-      <c r="L51">
         <v>1.2924700000000001E-26</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2588,37 +1946,25 @@
         <v>47</v>
       </c>
       <c r="C52">
-        <v>2.4E-2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>10.189</v>
+        <v>427.53100000000001</v>
       </c>
       <c r="E52">
-        <v>16.741</v>
+        <v>702.41700000000003</v>
       </c>
       <c r="F52">
-        <v>18.111999999999998</v>
+        <v>759.95799999999997</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>2.3841859999999999E-7</v>
       </c>
       <c r="H52">
-        <v>427.53100000000001</v>
-      </c>
-      <c r="I52">
-        <v>702.41700000000003</v>
-      </c>
-      <c r="J52">
-        <v>759.95799999999997</v>
-      </c>
-      <c r="K52">
-        <v>2.3841859999999999E-7</v>
-      </c>
-      <c r="L52">
         <v>1.192093E-7</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2626,37 +1972,25 @@
         <v>48</v>
       </c>
       <c r="C53">
-        <v>1.9E-2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>0.72099999999999997</v>
+        <v>37.305</v>
       </c>
       <c r="E53">
-        <v>0.93899999999999995</v>
+        <v>48.59</v>
       </c>
       <c r="F53">
-        <v>1.0489999999999999</v>
+        <v>54.304000000000002</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>3.4694470000000004E-18</v>
       </c>
       <c r="H53">
-        <v>37.305</v>
-      </c>
-      <c r="I53">
-        <v>48.59</v>
-      </c>
-      <c r="J53">
-        <v>54.304000000000002</v>
-      </c>
-      <c r="K53">
         <v>3.4694470000000004E-18</v>
       </c>
-      <c r="L53">
-        <v>3.4694470000000004E-18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2664,37 +1998,25 @@
         <v>49</v>
       </c>
       <c r="C54">
-        <v>1.6E-2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>0.35599999999999998</v>
+        <v>22.553000000000001</v>
       </c>
       <c r="E54">
-        <v>0.44900000000000001</v>
+        <v>28.433</v>
       </c>
       <c r="F54">
-        <v>0.49299999999999999</v>
+        <v>31.213999999999999</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>3.3881320000000003E-21</v>
       </c>
       <c r="H54">
-        <v>22.553000000000001</v>
-      </c>
-      <c r="I54">
-        <v>28.433</v>
-      </c>
-      <c r="J54">
-        <v>31.213999999999999</v>
-      </c>
-      <c r="K54">
         <v>3.3881320000000003E-21</v>
       </c>
-      <c r="L54">
-        <v>3.3881320000000003E-21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2702,37 +2024,25 @@
         <v>50</v>
       </c>
       <c r="C55">
-        <v>1.6E-2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>2.3210000000000002</v>
+        <v>147.33799999999999</v>
       </c>
       <c r="E55">
-        <v>2.7370000000000001</v>
+        <v>173.756</v>
       </c>
       <c r="F55">
-        <v>3.4039999999999999</v>
+        <v>216.11799999999999</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>1.05754E-13</v>
       </c>
       <c r="H55">
-        <v>147.33799999999999</v>
-      </c>
-      <c r="I55">
-        <v>173.756</v>
-      </c>
-      <c r="J55">
-        <v>216.11799999999999</v>
-      </c>
-      <c r="K55">
-        <v>1.05754E-13</v>
-      </c>
-      <c r="L55">
         <v>2.9587439999999997E-14</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2740,37 +2050,25 @@
         <v>51</v>
       </c>
       <c r="C56">
-        <v>1.6E-2</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>3.0990000000000002</v>
+        <v>199.83099999999999</v>
       </c>
       <c r="E56">
-        <v>3.83</v>
+        <v>246.97</v>
       </c>
       <c r="F56">
-        <v>4.4550000000000001</v>
+        <v>287.21800000000002</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>4.5474739999999997E-13</v>
       </c>
       <c r="H56">
-        <v>199.83099999999999</v>
-      </c>
-      <c r="I56">
-        <v>246.97</v>
-      </c>
-      <c r="J56">
-        <v>287.21800000000002</v>
-      </c>
-      <c r="K56">
         <v>4.5474739999999997E-13</v>
       </c>
-      <c r="L56">
-        <v>4.5474739999999997E-13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2778,37 +2076,25 @@
         <v>52</v>
       </c>
       <c r="C57">
-        <v>1.4999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>11.377000000000001</v>
+        <v>767.23599999999999</v>
       </c>
       <c r="E57">
-        <v>14.291</v>
+        <v>963.79</v>
       </c>
       <c r="F57">
-        <v>16.873999999999999</v>
+        <v>1137.979</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>2.9103829999999999E-11</v>
       </c>
       <c r="H57">
-        <v>767.23599999999999</v>
-      </c>
-      <c r="I57">
-        <v>963.79</v>
-      </c>
-      <c r="J57">
-        <v>1137.979</v>
-      </c>
-      <c r="K57">
-        <v>2.9103829999999999E-11</v>
-      </c>
-      <c r="L57">
         <v>1.4551920000000001E-11</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2816,37 +2102,25 @@
         <v>53</v>
       </c>
       <c r="C58">
-        <v>1.4999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>11.365</v>
+        <v>767.39300000000003</v>
       </c>
       <c r="E58">
-        <v>13.897</v>
+        <v>938.40800000000002</v>
       </c>
       <c r="F58">
-        <v>16.245000000000001</v>
+        <v>1096.9690000000001</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>3.6379789999999996E-12</v>
       </c>
       <c r="H58">
-        <v>767.39300000000003</v>
-      </c>
-      <c r="I58">
-        <v>938.40800000000002</v>
-      </c>
-      <c r="J58">
-        <v>1096.9690000000001</v>
-      </c>
-      <c r="K58">
-        <v>3.6379789999999996E-12</v>
-      </c>
-      <c r="L58">
         <v>1.8189889999999999E-12</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2854,37 +2128,25 @@
         <v>54</v>
       </c>
       <c r="C59">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>8.82</v>
+        <v>435.75099999999998</v>
       </c>
       <c r="E59">
-        <v>9.968</v>
+        <v>492.50299999999999</v>
       </c>
       <c r="F59">
-        <v>10.945</v>
+        <v>540.76</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>5.679229E-15</v>
       </c>
       <c r="H59">
-        <v>435.75099999999998</v>
-      </c>
-      <c r="I59">
-        <v>492.50299999999999</v>
-      </c>
-      <c r="J59">
-        <v>540.76</v>
-      </c>
-      <c r="K59">
-        <v>5.679229E-15</v>
-      </c>
-      <c r="L59">
         <v>1.7763570000000001E-15</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2892,37 +2154,25 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>1.4E-2</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>0.02</v>
+        <v>1.476</v>
       </c>
       <c r="E60">
-        <v>2.5000000000000001E-2</v>
+        <v>1.859</v>
       </c>
       <c r="F60">
-        <v>3.2000000000000001E-2</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>8.6329240000000002E-8</v>
       </c>
       <c r="H60">
-        <v>1.476</v>
-      </c>
-      <c r="I60">
-        <v>1.859</v>
-      </c>
-      <c r="J60">
-        <v>2.3490000000000002</v>
-      </c>
-      <c r="K60">
-        <v>8.6329240000000002E-8</v>
-      </c>
-      <c r="L60">
         <v>3.4838940000000001E-7</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2930,37 +2180,25 @@
         <v>55</v>
       </c>
       <c r="C61">
-        <v>1.4999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>2.3639999999999999</v>
+        <v>160.58000000000001</v>
       </c>
       <c r="E61">
-        <v>2.9540000000000002</v>
+        <v>200.67</v>
       </c>
       <c r="F61">
-        <v>3.625</v>
+        <v>246.25800000000001</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>1.136868E-13</v>
       </c>
       <c r="H61">
-        <v>160.58000000000001</v>
-      </c>
-      <c r="I61">
-        <v>200.67</v>
-      </c>
-      <c r="J61">
-        <v>246.25800000000001</v>
-      </c>
-      <c r="K61">
-        <v>1.136868E-13</v>
-      </c>
-      <c r="L61">
         <v>5.6843420000000003E-14</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2968,37 +2206,25 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>1.4E-2</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>1.2999999999999999E-2</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="E62">
-        <v>1.7000000000000001E-2</v>
+        <v>1.149</v>
       </c>
       <c r="F62">
-        <v>2.1000000000000001E-2</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>4.343156E-8</v>
       </c>
       <c r="H62">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="I62">
-        <v>1.149</v>
-      </c>
-      <c r="J62">
-        <v>1.4810000000000001</v>
-      </c>
-      <c r="K62">
-        <v>4.343156E-8</v>
-      </c>
-      <c r="L62">
         <v>3.3926700000000002E-7</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3006,37 +2232,25 @@
         <v>56</v>
       </c>
       <c r="C63">
-        <v>7.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>5.0549999999999997</v>
+        <v>766.851</v>
       </c>
       <c r="E63">
-        <v>6.7370000000000001</v>
+        <v>1022.014</v>
       </c>
       <c r="F63">
-        <v>8.8170000000000002</v>
+        <v>1337.5340000000001</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>3.0517579999999999E-5</v>
       </c>
       <c r="H63">
-        <v>766.851</v>
-      </c>
-      <c r="I63">
-        <v>1022.014</v>
-      </c>
-      <c r="J63">
-        <v>1337.5340000000001</v>
-      </c>
-      <c r="K63">
-        <v>3.0517579999999999E-5</v>
-      </c>
-      <c r="L63">
         <v>2.4414059999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3044,33 +2258,21 @@
         <v>59</v>
       </c>
       <c r="C64">
-        <v>7.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>6.0000000000000001E-3</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="E64">
-        <v>8.0000000000000002E-3</v>
+        <v>1.2589999999999999</v>
       </c>
       <c r="F64">
-        <v>1.0999999999999999E-2</v>
+        <v>1.67</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>1.145647E-7</v>
       </c>
       <c r="H64">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="I64">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="J64">
-        <v>1.67</v>
-      </c>
-      <c r="K64">
-        <v>1.145647E-7</v>
-      </c>
-      <c r="L64">
         <v>1.057669E-6</v>
       </c>
     </row>
